--- a/Boletin_ Epi_Pereira/Datos/histo_ira.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/histo_ira.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Dropbox\SIVIGILA\boletin epidemiologico per\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Desktop/boletin epidemiologico per/boletin epidemiologico per/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA33358-CC06-4B02-A2E0-A1940BA30428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F99D6D2-35E7-D540-B362-34B72756190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -369,18 +369,18 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -397,712 +397,712 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1380</v>
+        <v>1421</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1902</v>
+        <v>1235</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1531</v>
+        <v>1159</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1263</v>
+        <v>917</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1438</v>
+        <v>846</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1403</v>
+        <v>764</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1527</v>
+        <v>822</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1478</v>
+        <v>868</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1566</v>
+        <v>918</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1883</v>
+        <v>955</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2357</v>
+        <v>830</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2264</v>
+        <v>887</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>747</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1580</v>
+        <v>1197</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3974</v>
+        <v>1366</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>3942</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2361</v>
+        <v>1278</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2775</v>
+        <v>983</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>2743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3752</v>
+        <v>844</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>3717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3190</v>
+        <v>1009</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1720</v>
+        <v>3726</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1463</v>
+        <v>1118</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E22">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1150</v>
+        <v>1450</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E23">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1130</v>
+        <v>1543</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1057</v>
+        <v>1638</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1039</v>
+        <v>1830</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1298</v>
+        <v>1747</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1821</v>
+        <v>1435</v>
       </c>
       <c r="C28">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1365</v>
+        <v>1582</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1162</v>
+        <v>1266</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1492</v>
+        <v>1244</v>
       </c>
       <c r="C31">
         <v>32</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E31">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1363</v>
+        <v>1103</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1346</v>
+        <v>884</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1052</v>
+        <v>760</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>998</v>
+        <v>1050</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>971</v>
+        <v>1026</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1106</v>
+        <v>1072</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1008</v>
+        <v>1111</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
+        <v>1074</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
         <v>1040</v>
       </c>
-      <c r="C39">
-        <v>26</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1029</v>
+        <v>1073</v>
       </c>
       <c r="C41">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1046</v>
+        <v>941</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1086</v>
+        <v>1051</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -1111,174 +1111,174 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1073</v>
+        <v>1250</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1086</v>
+        <v>1000</v>
       </c>
       <c r="C45">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1090</v>
+        <v>1278</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>963</v>
+        <v>1248</v>
       </c>
       <c r="C48">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1024</v>
+        <v>1226</v>
       </c>
       <c r="C49">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1026</v>
+        <v>1203</v>
       </c>
       <c r="C50">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1121</v>
+        <v>1440</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1142</v>
+        <v>1396</v>
       </c>
       <c r="C52">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E52">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1247</v>
+        <v>1884</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>1110</v>
+        <v>1843</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1292,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1304,7 +1304,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1316,7 +1316,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
